--- a/pct_bias.xlsx
+++ b/pct_bias.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
         <v>0.24401343485806</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.056275913354836</v>
+        <v>-0.059294523365166</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08553440844397901</v>
+        <v>-0.08883472622775901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.029070663717145</v>
+        <v>0.027489156085751</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +501,13 @@
         <v>1.09091870030191</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.154346451241698</v>
+        <v>-0.18292015852187</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7924115970569691</v>
+        <v>-0.815881595142061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06799439580145901</v>
+        <v>0.054958688836974</v>
       </c>
     </row>
     <row r="4">
@@ -516,20 +516,20 @@
           <t>30d naive</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.520020543637097</v>
+      <c r="B4" t="n">
+        <v>-0.520020543637096</v>
       </c>
       <c r="C4" t="n">
         <v>4.54730092679259</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.773499680050674</v>
+        <v>-0.921670690352811</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-2.38019586330443</v>
+        <v>-2.29731569051892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.228536339098208</v>
+        <v>0.211875224941396</v>
       </c>
     </row>
     <row r="5">
@@ -545,13 +545,13 @@
         <v>0.421422962693021</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.115716752468119</v>
+        <v>-0.119117107958588</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.191713325699514</v>
+        <v>-0.197471584550116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04360351114845001</v>
+        <v>0.041313950928128</v>
       </c>
     </row>
     <row r="6">
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.040922798352827</v>
+        <v>0.038523484528755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.369594306665126</v>
+        <v>0.35761340334831</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09215914584364</v>
+        <v>-0.09319164994957101</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.165409755344635</v>
+        <v>-0.161883510159085</v>
       </c>
       <c r="F6" t="n">
-        <v>0.038783201942943</v>
+        <v>0.035791456191681</v>
       </c>
     </row>
     <row r="7">
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.049968822517286</v>
+        <v>0.04728946340456101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.371238782786639</v>
+        <v>0.359367288783417</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.09329727953664901</v>
+        <v>-0.09398158286654</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.163887320050611</v>
+        <v>-0.160260990063469</v>
       </c>
       <c r="F7" t="n">
-        <v>0.041529550238598</v>
+        <v>0.038608567131846</v>
       </c>
     </row>
     <row r="8">
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.036457718950745</v>
+        <v>0.03257350023650801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.371270330280437</v>
+        <v>0.377692285484843</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.083430827394496</v>
+        <v>-0.08251287122122</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.145764966710741</v>
+        <v>-0.148379674097089</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04518753997228901</v>
+        <v>0.045422318853138</v>
       </c>
     </row>
     <row r="9">
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09418397409467601</v>
+        <v>0.165203584871899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.46237101718794</v>
+        <v>0.451641477581985</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08488517692207401</v>
+        <v>-0.07992368353207101</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.300060853860952</v>
+        <v>-0.28401170258503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.043630121090783</v>
+        <v>0.06375895088443501</v>
       </c>
     </row>
     <row r="10">
@@ -649,16 +649,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09418397409467601</v>
+        <v>0.165203584871899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.46237101718794</v>
+        <v>0.451641477581985</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08488517692207401</v>
+        <v>-0.07992368353207101</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.300060853860952</v>
+        <v>-0.28401170258503</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -669,19 +669,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01314891526368</v>
+        <v>0.010615554946815</v>
       </c>
       <c r="C11" t="n">
-        <v>0.358725042481037</v>
+        <v>0.368357206529457</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.09922942889933101</v>
+        <v>-0.09826196746764401</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.163127032584818</v>
+        <v>-0.174548875700433</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.027958996759676</v>
+        <v>0.027156011019518</v>
       </c>
     </row>
     <row r="12">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.458207929106</v>
+        <v>-4.88625842284954</v>
       </c>
       <c r="C12" t="n">
-        <v>4.90030414226622</v>
+        <v>4.34851015618375</v>
       </c>
       <c r="D12" t="n">
-        <v>4.06738083652239</v>
+        <v>7.19205840154032</v>
       </c>
       <c r="E12" t="n">
-        <v>5.25197495416152</v>
+        <v>3.83777003140382</v>
       </c>
       <c r="F12" t="n">
-        <v>4.17352819825265</v>
+        <v>2.65051434446095</v>
       </c>
     </row>
     <row r="13">
@@ -712,20 +712,20 @@
           <t>lm</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1.81663935327009</v>
+      <c r="B13" s="2" t="n">
+        <v>-5.12940141887619</v>
       </c>
       <c r="C13" t="n">
-        <v>3.81750800058149</v>
+        <v>4.21901419075841</v>
       </c>
       <c r="D13" t="n">
-        <v>2.01102207404107</v>
+        <v>8.87974220640168</v>
       </c>
       <c r="E13" t="n">
-        <v>3.48052109617517</v>
+        <v>6.19657528429093</v>
       </c>
       <c r="F13" t="n">
-        <v>2.78346935181439</v>
+        <v>3.56980331327197</v>
       </c>
     </row>
     <row r="14">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5718513614549741</v>
+        <v>0.518329924020808</v>
       </c>
       <c r="C14" t="n">
-        <v>1.16421306093583</v>
+        <v>1.06888955872832</v>
       </c>
       <c r="D14" t="n">
-        <v>0.597272600016991</v>
+        <v>0.425351537721022</v>
       </c>
       <c r="E14" t="n">
-        <v>1.02952102498899</v>
+        <v>0.8954643317453991</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8413013469037851</v>
+        <v>0.727404358922172</v>
       </c>
     </row>
     <row r="15">
@@ -757,19 +757,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.41855280821008</v>
+        <v>0.06294001163187</v>
       </c>
       <c r="C15" t="n">
-        <v>5.16862979166492</v>
+        <v>0.5295329386748431</v>
       </c>
       <c r="D15" t="n">
-        <v>4.23333738008586</v>
+        <v>-0.112946262041283</v>
       </c>
       <c r="E15" t="n">
-        <v>4.93093938568902</v>
+        <v>-0.300465802198912</v>
       </c>
       <c r="F15" t="n">
-        <v>4.19309300421829</v>
+        <v>0.045635177299235</v>
       </c>
     </row>
     <row r="16">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.16650226608189</v>
+        <v>-0.054795281405736</v>
       </c>
       <c r="C16" t="n">
-        <v>5.79825152386956</v>
+        <v>0.5835011904303731</v>
       </c>
       <c r="D16" t="n">
-        <v>5.65549310933257</v>
+        <v>0.041003940196902</v>
       </c>
       <c r="E16" t="n">
-        <v>5.86343973370147</v>
+        <v>-0.201571913031992</v>
       </c>
       <c r="F16" t="n">
-        <v>4.87930499891065</v>
+        <v>0.09344036926013301</v>
       </c>
     </row>
     <row r="17">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.393644982733</v>
+        <v>2.40135549965032</v>
       </c>
       <c r="C17" t="n">
-        <v>5.21520131823072</v>
+        <v>12.4525138471674</v>
       </c>
       <c r="D17" t="n">
-        <v>4.32727016564528</v>
+        <v>15.542948420251</v>
       </c>
       <c r="E17" t="n">
-        <v>4.97167612286497</v>
+        <v>11.8730955924038</v>
       </c>
       <c r="F17" t="n">
-        <v>4.23243440392515</v>
+        <v>10.5974196996706</v>
       </c>
     </row>
     <row r="18">
@@ -823,19 +823,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.458207929106</v>
+        <v>-4.93695099676872</v>
       </c>
       <c r="C18" t="n">
-        <v>4.90030414226622</v>
+        <v>4.34252976444416</v>
       </c>
       <c r="D18" t="n">
-        <v>4.06738083652239</v>
+        <v>7.20118431619643</v>
       </c>
       <c r="E18" t="n">
-        <v>5.25197495416152</v>
+        <v>3.80336213466803</v>
       </c>
       <c r="F18" t="n">
-        <v>4.17352819825265</v>
+        <v>2.63018764559824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>arima1_0_2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4.19505348367604</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.91159475378929</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.50972418272067</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.07263115094629</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.10182882796812</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>sarima212_001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.3412683459149</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.3331045517984</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.4148542117711</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.7800852320783</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.10182882796812</v>
       </c>
     </row>
   </sheetData>
